--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南海トラフ巨大地震</t>
+          <t>ひゃくえむ。</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ひゃくえむ。</t>
+          <t>南海トラフ巨大地震</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>魔女と傭兵</t>
+          <t>黒猫と魔女の教室</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黒猫と魔女の教室</t>
+          <t>魔女と傭兵</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ドラハチ</t>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+          <t>ドラハチ</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+          <t>アルキメデスの大戦</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>アルキメデスの大戦</t>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>おやすみ ふみさん</t>
+          <t>せいぶつ部の田辺くん</t>
         </is>
       </c>
     </row>
@@ -771,7 +771,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>阿武ノーマル</t>
+          <t>おやすみ ふみさん</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>せいぶつ部の田辺くん</t>
+          <t>阿武ノーマル</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+          <t>イレギュラーズ</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>イレギュラーズ</t>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FAIRY TAIL 100 YEARS QUEST</t>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>食糧人類-Starving Anonymous-</t>
+          <t>アオバノバスケ</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>アオバノバスケ</t>
+          <t>食糧人類-Starving Anonymous-</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+          <t>なれの果ての僕ら</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>なれの果ての僕ら</t>
+          <t>イジらないで、長瀞さん</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>イジらないで、長瀞さん</t>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>デスティニーラバーズ</t>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+          <t>いじめるヤバイ奴</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>いじめるヤバイ奴</t>
+          <t>ハナバス　苔石花江のバスケ論</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ハナバス　苔石花江のバスケ論</t>
+          <t>デスティニーラバーズ</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+          <t>降り積もれ孤独な死よ</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ジュミドロ</t>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>降り積もれ孤独な死よ</t>
+          <t>ブルーロック</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ブルーロック</t>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+          <t>ジュミドロ</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>剣帝学院の魔眼賢者</t>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>人間消失</t>
+          <t>剣帝学院の魔眼賢者</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>可愛いだけじゃない式守さん</t>
+          <t>人間消失</t>
         </is>
       </c>
     </row>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>幼馴染とはラブコメにならない</t>
+          <t>可愛いだけじゃない式守さん</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+          <t>幼馴染とはラブコメにならない</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+          <t>ヒロインは絶望しました。</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ヒロインは絶望しました。</t>
+          <t>魁の花巫女</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>魁の花巫女</t>
+          <t>復讐の教科書</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>インフェクション</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>復讐の教科書</t>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>はっちぽっちぱんち</t>
+          <t>我間乱 ―修羅―</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>我間乱 ―修羅―</t>
+          <t>インフェクション</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+          <t>DAYS外伝</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+          <t>はっちぽっちぱんち</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>卒業アルバムの彼女たち</t>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+          <t>卒業アルバムの彼女たち</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>お願い、脱がシて。</t>
+          <t>ぼくのアデリア</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ぼくのアデリア</t>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+          <t>GALAXIAS</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1341,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DAYS外伝</t>
+          <t>ともだちづくり</t>
         </is>
       </c>
     </row>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ともだちづくり</t>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GALAXIAS</t>
+          <t>お願い、脱がシて。</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ナキナギ</t>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+          <t>はじめの一歩</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>テイルズ・オブ・クレストリア　咎我人の罪歌</t>
+          <t>「俺、パーティー抜けるわ」が口癖のスキル【縮小】のDランク冒険者、聖女と結婚して勇者パーティーに加入するハメになる</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>はじめの一歩</t>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>それがメイドのカンナです</t>
+          <t>彼女、お借りします</t>
         </is>
       </c>
     </row>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>「俺、パーティー抜けるわ」が口癖のスキル【縮小】のDランク冒険者、聖女と結婚して勇者パーティーに加入するハメになる</t>
+          <t>それがメイドのカンナです</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>彼女、お借りします</t>
+          <t>ザ・ファブル</t>
         </is>
       </c>
     </row>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="magapoke_2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="magapoke_2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宇宙兄弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fate/Grand Order -Epic of Remnant- 英霊剣豪七番勝負</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>私をセンターにすると誓いますか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>放課後、ぼくは君になる</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>邪魔な初級職を追放したら、大変なことになっちゃったんですけど！？～追放された初級職【アイテム師】が自分の居場所を見つけるまで外伝～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>おくることば</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>地獄の業火で焼かれ続けた少年。最強の炎使いとなって復活する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>SHAMAN KING THE SUPER STAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>陽子さん、すがりよる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>死ぬほど君の処女が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="magapoke_2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="magapoke_2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="magapoke_2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2480,4 +2481,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>宇宙兄弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>放課後、ぼくは君になる</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>卒業アルバムの彼女たち</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>「無能はいらない」と言われたから絶縁してやった　～最強の四天王に育てられた俺は、冒険者となり無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>英雄と魔女の転生ラブコメ</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>鉱石令嬢〜没落した悪役令嬢が炭鉱で一山当てるまでのお話〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -10,6 +10,7 @@
     <sheet name="magapoke_2025-10-22" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="magapoke_2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="magapoke_2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="magapoke_2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3512,4 +3513,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>宇宙兄弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>鉱石令嬢〜没落した悪役令嬢が炭鉱で一山当てるまでのお話〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>邪魔な初級職を追放したら、大変なことになっちゃったんですけど！？～追放された初級職【アイテム師】が自分の居場所を見つけるまで外伝～</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>〈小市民〉 春期限定いちごタルト事件</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -11,6 +11,7 @@
     <sheet name="magapoke_2025-10-29" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="magapoke_2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="magapoke_2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="magapoke_2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4544,4 +4545,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>宇宙兄弟</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>しかのこのこのここしたんたん</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>現代転移の第二王子</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>英雄と魔女の転生ラブコメ</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>微妙に優しいいじめっ子</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>絶望集落</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>卒業アルバムの彼女たち</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -12,6 +12,7 @@
     <sheet name="magapoke_2025-11-05" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="magapoke_2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="magapoke_2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="magapoke_2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5576,4 +5577,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>東大リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>転生したらスライムだった件</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ザ・ファブル</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>絶望集落</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -13,6 +13,7 @@
     <sheet name="magapoke_2025-11-12" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="magapoke_2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="magapoke_2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="magapoke_2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6608,4 +6609,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>卒業アルバムの彼女たち</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ぼくのアデリア</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>正体不明と恐怖</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>地獄の業火で焼かれ続けた少年。最強の炎使いとなって復活する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>奴隷転生～その奴隷、最強の元王子につき～</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>東大リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>インフルエンサーにストーカーされています</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -14,6 +14,7 @@
     <sheet name="magapoke_2025-11-19" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="magapoke_2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="magapoke_2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="magapoke_2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7640,4 +7641,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>四十七大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -15,6 +15,7 @@
     <sheet name="magapoke_2025-11-26" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="magapoke_2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="magapoke_2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="magapoke_2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8672,4 +8673,1035 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>お願い、脱がシて。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>卒業アルバムの彼女たち</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>英雄と魔女の転生ラブコメ</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ぼくのアデリア</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>陽子さん、すがりよる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -16,6 +16,7 @@
     <sheet name="magapoke_2025-12-03" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="magapoke_2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="magapoke_2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="magapoke_2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1458,6 +1459,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>私をセンターにすると誓いますか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>七聖剣と魔剣の姫</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL CITY HERO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>勇者パーティを追い出された器用貧乏　～パーティ事情で付与術士をやっていた剣士、万能へと至る～</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>堂島くんは動じない</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>捨てられた転生賢者～魔物の森で最強の大魔帝国を作り上げる～</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -17,6 +17,7 @@
     <sheet name="magapoke_2025-12-10" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="magapoke_2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="magapoke_2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="magapoke_2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2490,6 +2491,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fate/Grand Order -Epic of Remnant- 英霊剣豪七番勝負</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>死ぬほど君の処女が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>卒業アルバムの彼女たち</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>捨てられた転生賢者～魔物の森で最強の大魔帝国を作り上げる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>メイドの岸さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>英雄と魔女の転生ラブコメ</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>絶望の楽園</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>JK Biker</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -18,6 +18,7 @@
     <sheet name="magapoke_2025-12-17" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="magapoke_2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="magapoke_2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="magapoke_2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3522,6 +3523,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>みいちゃんと山田さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>薫る花は凛と咲く</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>花園さんちのふたごちゃん</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>放課後、ぼくは君になる</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fate/Grand Order -Epic of Remnant- 英霊剣豪七番勝負</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>〈小市民〉 春期限定いちごタルト事件</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SHAMAN KING THE SUPER STAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>微妙に優しいいじめっ子</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>東京デスレース</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -19,6 +19,7 @@
     <sheet name="magapoke_2025-12-24" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="magapoke_2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="magapoke_2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="magapoke_2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4554,6 +4555,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>「無能はいらない」と言われたから絶縁してやった　～最強の四天王に育てられた俺は、冒険者となり無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>死ぬほど君の処女が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>インフルエンサーにストーカーされています</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ぼくのアデリア</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ウイニング パス</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -20,6 +20,7 @@
     <sheet name="magapoke_2025-12-31" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="magapoke_2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="magapoke_2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="magapoke_2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5586,6 +5587,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ゼロとヒャク</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>しかのこのこのここしたんたん</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>「無能はいらない」と言われたから絶縁してやった　～最強の四天王に育てられた俺は、冒険者となり無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>奴隷転生～その奴隷、最強の元王子につき～</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>じゅーくぼっくす</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>死ぬほど君の処女が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ランカーズ・ハイ</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>現代転移の第二王子</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -21,6 +21,7 @@
     <sheet name="magapoke_2026-01-07" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="magapoke_2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="magapoke_2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="magapoke_2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6618,6 +6619,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>生徒と恋はできません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>白鳥運子は31画</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ぼくのアデリア</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>勇者と呼ばれた後に　―そして無双男は家族を創る―</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>おくることば</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ヒプノシスマイク -Division Rap Battle- side D.H &amp; B.A.T</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>殺人猟団 ‐マッドメン‐</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>触手魔術師の成り上がり</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>明智ナンバーワン</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>絶望集落</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -22,6 +22,7 @@
     <sheet name="magapoke_2026-01-14" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="magapoke_2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="magapoke_2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="magapoke_2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7650,6 +7651,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－アグリーダック－</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>英雄と魔女の転生ラブコメ</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－高校生探偵 天命大地－</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ナキナギ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>エルディアス・ロード 女神にもらった絶対死なない究極スキルで七つのダンジョンを攻略する</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>東京ネオンスキャンダル</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>白鳥運子は31画</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>奪う者 奪われる者</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>This Man その顔を見た者には死を</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DAYS外伝</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ぼくのアデリア</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>異世界トリップしたTL小説愛好家、閨の記録係になる。 ～ついでに生真面目宰相と契約結婚～</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -23,6 +23,7 @@
     <sheet name="magapoke_2026-01-21" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="magapoke_2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="magapoke_2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="magapoke_2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8682,6 +8683,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－アグリーダック－</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ペンの夢に紅をさす</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>地獄の業火で焼かれ続けた少年。最強の炎使いとなって復活する。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>お嬢様の僕</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>リスナーに騙されてダンジョンの最下層から脱出RTAすることになった</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>生徒と恋はできません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>白鳥運子は31画</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>それがメイドのカンナです</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>人間消失</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Social Survival Rabbits-ソーシャル・サバイバル・ラビッツ-</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－高校生探偵 天命大地－</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>わが投資術　市場は誰に微笑むか</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -24,6 +24,7 @@
     <sheet name="magapoke_2026-01-28" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="magapoke_2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="magapoke_2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="magapoke_2026-02-18" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9714,6 +9715,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－アグリーダック－</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ペンの夢に紅をさす</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ルックスＹを選んでしまいました 〜やり込んでいるゲームに転生したはずなのに、未実装のガチャで攻略をすることになった件〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>白鳥運子は31画</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>おくることば</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>日本語が話せないロシア人美少女転入生が頼れるのは、多言語マスターの俺1人</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>インフルエンサーにストーカーされています</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>母という呪縛 娘という牢獄</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>捨てられた転生賢者～魔物の森で最強の大魔帝国を作り上げる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>奴隷転生～その奴隷、最強の元王子につき～</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ハプスブルク家の華麗なる受難</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>怪病医ラムネ</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>はじめの一歩</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ヤンキーＪＫの異常な愛情</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>金田一少年の事件簿外伝 犯人たちの事件簿</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－高校生探偵 天命大地－</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>中華一番！極</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>四刀流の最強配信者～やり込んだVRゲームの設定が現実世界に反映されたので、廃止予定だった戦闘職で無双します～</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/weekly_ranking.xlsx
+++ b/weekly_ranking.xlsx
@@ -25,6 +25,7 @@
     <sheet name="magapoke_2026-02-04" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="magapoke_2026-02-11" sheetId="17" state="visible" r:id="rId17"/>
     <sheet name="magapoke_2026-02-18" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="magapoke_2026-02-25" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10746,6 +10747,1037 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ブルーロック</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ギルティサークル</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ベイビーステップ</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>島耕作</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>君が僕らを悪魔と呼んだ頃</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>イレギュラーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>黄昏町プリズナーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>信じていた仲間達にダンジョン奥地で殺されかけたがギフト『無限ガチャ』でレベル9999の仲間達を手に入れて元パーティーメンバーと世界に復讐＆『ざまぁ！』します！</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>十字架のろくにん</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>愛妻の裏アカ</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>魔女と傭兵</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>転生貴族、鑑定スキルで成り上がる～弱小領地を受け継いだので、優秀な人材を増やしていたら、最強領地になってた～</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黒猫と魔女の教室</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ハードワーカー中田</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ガチアクタ</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>転生したら第七王子だったので、気ままに魔術を極めます</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>となりの黒川さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>南海トラフ巨大地震</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>魔術ギルド総帥～生まれ変わって今更やり直す2度目の学院生活～</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>デッドアカウント</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ドラハチ</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>WIND BREAKER</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>【爆アド】生まれた直後から最強悪霊と脳内バトルしてたら魔力量が測定可能域を超えてました〜悪憑の子の謙虚な覇道〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>異世界ウォーキング</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>K-9~警視庁公安部公安第9課異能対策係~</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ひゃくえむ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>限界集落を脱村した錬金術士、都会で"最強"なのがバレまくる。～老害どもにはいい加減愛想が尽きました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>蒼く染めろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>味方が弱すぎて補助魔法に徹していた宮廷魔法師、追放されて最強を目指す</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>さわらないで小手指くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>幼馴染とはラブコメにならない</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>せいぶつ部の田辺くん</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>グラぱらっ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>追放された転生王子、『自動製作《オートクラフト》』スキルで領地を爆速で開拓し最強の村を作ってしまう〜最強クラフトスキルで始める、楽々領地開拓スローライフ〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>辺境の薬師、都でSランク冒険者となる～英雄村の少年がチート薬で無自覚無双〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ともだちづくり</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－アグリーダック－</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ハナバス　苔石花江のバスケ論</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>屋根の下のアルテミス</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>アルキメデスの大戦</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>お母さん冒険者、ログインボーナスでスキル【主婦】に目覚めました。週一貰えるチラシで冒険者生活頑張ります！</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Aランクパーティを離脱した俺は、元教え子たちと迷宮深部を目指す。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FAIRY TAIL 100 YEARS QUEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>食糧人類-Starving Anonymous-</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>普通の本はありません！</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>降り積もれ孤独な死よ</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>おやすみ ふみさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>異世界グルメで成り上がり無双～山に追放されたので、のんびりキャンプを楽しんでいたらいつの間にか強くなっていて、王侯貴族や実力者たちが俺を放っておいてくれません。一方、俺を追放した貴族たちは破滅が始まる～</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>不遇職【鑑定士】が実は最強だった～奈落で鍛えた最強の【神眼】で無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>皇女転生　～伝説の大魔導士（♂）、姫騎士となりて伝説の令嬢騎士団を作り無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ペンの夢に紅をさす</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>念願の悪役令嬢（ラスボス）の身体を手に入れたぞ！</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ジュミドロ</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>なれの果ての僕ら</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>いじめるヤバイ奴</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Destiny Unchain Online 〜吸血鬼少女となって、やがて『赤の魔王』と呼ばれるようになりました〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>可愛いだけじゃない式守さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>アオバノバスケ</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>時々ボソッとロシア語でデレる隣のアーリャさん</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>君が監督！</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>東京卍リベンジャーズ～場地圭介からの手紙～</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>恋ニ非ズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MYS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>不遇職『鍛冶師』だけど最強です ～気づけば何でも作れるようになっていた男ののんびりスローライフ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>田んぼで拾った女騎士、田舎で俺の嫁だと思われている</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>剣帝学院の魔眼賢者</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>白鳥運子は31画</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>おくることば</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ストーカー行為がバレて人生終了男</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>追放されなかった男　～二度目の人生は土下座から始まりました～</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>死ぬほど君の処女が欲しい</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>インフェクション</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>シャングリラ・フロンティア～クソゲーハンター、神ゲーに挑まんとす～</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>春くらり</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>最弱な僕は＜壁抜けバグ＞で成り上がる～壁をすり抜けたら、初回クリア報酬を無限回収できました！～</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>デスティニーラバーズ</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GALAXIAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>私をセンターにすると誓いますか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>我間乱 ―修羅―</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>はっちぽっちぱんち</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>この世界がいずれ滅ぶことを、俺だけが知っている～モンスターが現れた世界で、死に戻りレベルアップ～</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>鳴るさんだぁ</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>劣等人の魔剣使い　スキルボードを駆使して最強に至る</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>ヒロインは絶望しました。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>阿武ノーマル</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>ダメスキル【自動機能】が覚醒しました～あれ、ギルドのスカウトの皆さん、俺を「いらない」って言ってませんでした？～</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>This Man その顔を見た者には死を</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>復讐の教科書</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>イジらないで、長瀞さん</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ほねぬきごはん　～ウブで奥手な半キュバスにハートをください～</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ぼくたちのリメイク</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>冰剣の魔術師が世界を統べる〜世界最強の魔術師である少年は、魔術学院に入学する〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ハンドレッドノート－高校生探偵 天命大地－</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>「無能はいらない」と言われたから絶縁してやった　～最強の四天王に育てられた俺は、冒険者となり無双する～</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ザ・ファブル</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>五輪の女神さま 〜なでしこ寮のメダルごはん〜</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>魁の花巫女</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>彼女、お借りします</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>メダリスト</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
